--- a/data/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
+++ b/data/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -574,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -820,7 +820,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -898,7 +898,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -980,7 +980,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -7234,7 +7234,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7882,7 +7882,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8452,7 +8452,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -9272,7 +9272,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9557,7 +9557,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9967,7 +9967,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -10088,7 +10088,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -10127,7 +10127,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -10170,7 +10170,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10494,7 +10494,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10580,7 +10580,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10662,7 +10662,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10826,7 +10826,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10908,7 +10908,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -11232,7 +11232,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -11357,7 +11357,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11478,7 +11478,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11724,7 +11724,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11845,7 +11845,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11966,7 +11966,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -12294,7 +12294,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12786,7 +12786,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12825,7 +12825,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12993,7 +12993,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -13114,7 +13114,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -13157,7 +13157,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -13239,7 +13239,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -13317,7 +13317,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -13442,7 +13442,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -13520,7 +13520,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -13563,7 +13563,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -13606,7 +13606,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -13649,7 +13649,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -13688,7 +13688,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13969,7 +13969,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -14055,7 +14055,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -14098,7 +14098,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -14137,7 +14137,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -14340,7 +14340,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -14461,7 +14461,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -14504,7 +14504,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -14547,7 +14547,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -14625,7 +14625,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -14664,7 +14664,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -14746,7 +14746,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -14789,7 +14789,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14910,7 +14910,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14953,7 +14953,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -15074,7 +15074,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -15199,7 +15199,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -15281,7 +15281,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -15445,7 +15445,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -15488,7 +15488,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -15527,7 +15527,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -15605,7 +15605,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -15687,7 +15687,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -15730,7 +15730,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -15808,7 +15808,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15894,7 +15894,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15937,7 +15937,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -16015,7 +16015,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -16054,7 +16054,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -16140,7 +16140,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -16222,7 +16222,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -16300,7 +16300,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -16343,7 +16343,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -16429,7 +16429,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -16546,7 +16546,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -16589,7 +16589,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -16749,7 +16749,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -16835,7 +16835,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -16878,7 +16878,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -16956,7 +16956,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -17038,7 +17038,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -17077,7 +17077,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -17120,7 +17120,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -17198,7 +17198,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -17241,7 +17241,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -17284,7 +17284,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -17327,7 +17327,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -17366,7 +17366,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -17405,7 +17405,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -17444,7 +17444,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -17569,7 +17569,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -17647,7 +17647,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -17690,7 +17690,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -17776,7 +17776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -17815,7 +17815,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -17854,7 +17854,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -17936,7 +17936,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -17975,7 +17975,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -18139,7 +18139,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -18182,7 +18182,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -18225,7 +18225,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -18264,7 +18264,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -18342,7 +18342,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -18385,7 +18385,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -18424,7 +18424,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -18467,7 +18467,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -18545,7 +18545,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -18713,7 +18713,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -18791,7 +18791,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -18834,7 +18834,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -18873,7 +18873,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -18916,7 +18916,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -18994,7 +18994,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -19037,7 +19037,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -19123,7 +19123,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -19162,7 +19162,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -19283,7 +19283,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -19322,7 +19322,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -19365,7 +19365,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -19443,7 +19443,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -19486,7 +19486,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -19529,7 +19529,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -19611,7 +19611,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -19650,7 +19650,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -19689,7 +19689,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -19732,7 +19732,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -19814,7 +19814,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -19892,7 +19892,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -19978,7 +19978,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -20021,7 +20021,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -20060,7 +20060,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -20138,7 +20138,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -20181,7 +20181,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -20224,7 +20224,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -20263,7 +20263,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -20384,7 +20384,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -20427,7 +20427,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C491" s="2" t="n">
@@ -20470,7 +20470,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -20513,7 +20513,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -20552,7 +20552,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -20630,7 +20630,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -20755,7 +20755,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -20833,7 +20833,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -20919,7 +20919,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
@@ -20962,7 +20962,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -21001,7 +21001,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -21040,7 +21040,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -21079,7 +21079,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -21161,7 +21161,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -21282,7 +21282,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -21325,7 +21325,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -21368,7 +21368,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -21411,7 +21411,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C515" s="2" t="n">
@@ -21450,7 +21450,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -21489,7 +21489,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -21528,7 +21528,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -21571,7 +21571,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -21610,7 +21610,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -21653,7 +21653,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -21774,7 +21774,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -21817,7 +21817,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -21860,7 +21860,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -21899,7 +21899,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -21977,7 +21977,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -22020,7 +22020,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -22059,7 +22059,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -22102,7 +22102,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -22223,7 +22223,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -22266,7 +22266,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -22309,7 +22309,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C538" s="2" t="n">
@@ -22387,7 +22387,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -22426,7 +22426,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -22508,7 +22508,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -22551,7 +22551,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -22629,7 +22629,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -22672,7 +22672,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -22715,7 +22715,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -22758,7 +22758,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -22797,7 +22797,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -22836,7 +22836,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -22875,7 +22875,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -22918,7 +22918,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -22957,7 +22957,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -23000,7 +23000,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -23078,7 +23078,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -23121,7 +23121,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -23164,7 +23164,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -23207,7 +23207,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -23246,7 +23246,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -23285,7 +23285,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
@@ -23324,7 +23324,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -23367,7 +23367,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -23406,7 +23406,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -23449,7 +23449,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -23527,7 +23527,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -23613,7 +23613,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -23695,7 +23695,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -23734,7 +23734,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -23773,7 +23773,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -23816,7 +23816,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -23898,7 +23898,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -23976,7 +23976,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -24019,7 +24019,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -24062,7 +24062,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -24105,7 +24105,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -24144,7 +24144,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -24183,7 +24183,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -24222,7 +24222,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -24265,7 +24265,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
@@ -24347,7 +24347,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -24425,7 +24425,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -24468,7 +24468,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -24511,7 +24511,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -24554,7 +24554,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -24593,7 +24593,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -24632,7 +24632,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -24671,7 +24671,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -24714,7 +24714,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -24753,7 +24753,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -24796,7 +24796,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -24874,7 +24874,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -24917,7 +24917,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -24960,7 +24960,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -25003,7 +25003,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -25042,7 +25042,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -25081,7 +25081,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -25163,7 +25163,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -25202,7 +25202,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -25245,7 +25245,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -25323,7 +25323,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -25366,7 +25366,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -25409,7 +25409,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -25452,7 +25452,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -25491,7 +25491,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -25530,7 +25530,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -25569,7 +25569,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
@@ -25612,7 +25612,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C618" s="2" t="n">
@@ -25651,7 +25651,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -25694,7 +25694,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -25772,7 +25772,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -25815,7 +25815,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -25858,7 +25858,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -25901,7 +25901,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -25940,7 +25940,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
@@ -25979,7 +25979,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -26100,7 +26100,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -26143,7 +26143,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -26221,7 +26221,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
@@ -26264,7 +26264,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -26307,7 +26307,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -26350,7 +26350,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -26389,7 +26389,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -26428,7 +26428,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -26467,7 +26467,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -26510,7 +26510,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -26549,7 +26549,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -26592,7 +26592,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -26670,7 +26670,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -26713,7 +26713,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -26756,7 +26756,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -26799,7 +26799,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -26838,7 +26838,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -26877,7 +26877,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -26916,7 +26916,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -26959,7 +26959,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -26998,7 +26998,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -27119,7 +27119,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -27162,7 +27162,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C656" s="2" t="n">
@@ -27205,7 +27205,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -27248,7 +27248,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -27326,7 +27326,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -27365,7 +27365,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -27408,7 +27408,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -27447,7 +27447,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -27490,7 +27490,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -27568,7 +27568,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -27611,7 +27611,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C667" s="2" t="n">
@@ -27654,7 +27654,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
@@ -27697,7 +27697,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -27736,7 +27736,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -27775,7 +27775,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -27814,7 +27814,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -27857,7 +27857,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -27896,7 +27896,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -27939,7 +27939,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -28017,7 +28017,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -28060,7 +28060,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -28103,7 +28103,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -28146,7 +28146,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -28185,7 +28185,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -28224,7 +28224,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -28263,7 +28263,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -28306,7 +28306,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -28345,7 +28345,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -28388,7 +28388,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -28466,7 +28466,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -28509,7 +28509,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -28552,7 +28552,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -28595,7 +28595,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -28634,7 +28634,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -28673,7 +28673,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
